--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.35622570279956</v>
+        <v>-1.606846308537943</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3262237227285901</v>
+        <v>0.9722259529302908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04686703899971641</v>
+        <v>0.3310333799482907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.600707682649722</v>
+        <v>-1.508564644669911</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.08839681060548625</v>
+        <v>-0.09775702887849101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0132922785687146</v>
+        <v>0.0441080848479421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.002659202537664397</v>
+        <v>0.0185682141643534</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0699312427586028</v>
+        <v>-0.06478469617663345</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.046111172470017</v>
+        <v>6.101961150061645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.609701538566851</v>
+        <v>9.460639337183652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.270338455543049</v>
+        <v>8.284909843968666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.620404963746036</v>
+        <v>5.744616885080252</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.481334240026675</v>
+        <v>0.4946165450658281</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.568311601460165</v>
+        <v>0.5512613627782293</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6271081630007287</v>
+        <v>0.6103817838000122</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3115735307757835</v>
+        <v>0.3119901516443778</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.26651257915759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.109069028803598</v>
+        <v>2.109069028803601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3958873577250632</v>
@@ -749,7 +749,7 @@
         <v>0.1575089836431231</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1274465050444465</v>
+        <v>0.1274465050444467</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.504406456529817</v>
+        <v>1.64423545938718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2987856878040274</v>
+        <v>0.6206554270091562</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.25961931191928</v>
+        <v>-1.105251528517852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8857787184806892</v>
+        <v>-0.7989602055196711</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09923566684769979</v>
+        <v>0.1246529095633673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01826058922145033</v>
+        <v>0.03636899417417056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08045963477719598</v>
+        <v>-0.06666687395134975</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04783259655505893</v>
+        <v>-0.04198418552227764</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.955782252026915</v>
+        <v>8.198852824614617</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.416946218547822</v>
+        <v>7.118707814348076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.944786505388397</v>
+        <v>5.75726359514058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.072757065239871</v>
+        <v>5.022850522225273</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7206425711656324</v>
+        <v>0.7518092898273127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5735720136291995</v>
+        <v>0.5499801055840818</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.449370822512646</v>
+        <v>0.4539385339926161</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3418597822683299</v>
+        <v>0.3465755993497404</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.977464300805011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.470321113282109</v>
+        <v>-2.470321113282115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3263940378941414</v>
@@ -849,7 +849,7 @@
         <v>0.273881916381451</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1270063632583898</v>
+        <v>-0.12700636325839</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.04138994541101534</v>
+        <v>0.008783750962736892</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9918059573924107</v>
+        <v>-1.351385695092566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03020326667879854</v>
+        <v>-0.06846143024205394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.99783642033545</v>
+        <v>-5.804570782238613</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.001628565840887533</v>
+        <v>0.002133245847291004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06101955639679048</v>
+        <v>-0.08199499509230383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.001812305031479124</v>
+        <v>-0.007972938560652801</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2783905309219154</v>
+        <v>-0.2694350369233692</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.727890544798425</v>
+        <v>8.397350350338336</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.87448272992857</v>
+        <v>6.629099249310531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.832839074522832</v>
+        <v>7.593768279071559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.095535780385646</v>
+        <v>0.9866028300280528</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6947634722171068</v>
+        <v>0.7710766220501327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5467044510562105</v>
+        <v>0.4997161741117022</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6214746260475361</v>
+        <v>0.5899560654839856</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.06412925206142264</v>
+        <v>0.05762207983682563</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.845869536149034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.159206899323769</v>
+        <v>4.159206899323767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3787734523242158</v>
@@ -949,7 +949,7 @@
         <v>0.1208649816366155</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2163347604081373</v>
+        <v>0.2163347604081371</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.059713408906017</v>
+        <v>1.703554314981603</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.145683424565175</v>
+        <v>1.50749241008582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.561823946044717</v>
+        <v>-1.582991920689645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7456114257572609</v>
+        <v>1.032207531888234</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09337699184884801</v>
+        <v>0.1197372533282321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05561285896718814</v>
+        <v>0.07522296554106213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09365445933340076</v>
+        <v>-0.09182088510448298</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02616798590417709</v>
+        <v>0.04838316586101369</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.231569012522231</v>
+        <v>7.323002006508577</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.616042122897882</v>
+        <v>9.314521039961356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.247697345978549</v>
+        <v>5.301854561387715</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.217959481671815</v>
+        <v>7.122200403054749</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7245768787910086</v>
+        <v>0.7243310421404889</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5224130632498949</v>
+        <v>0.5802899137634412</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3887428764145955</v>
+        <v>0.3898390097414576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4059417222025477</v>
+        <v>0.403799404711411</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.197108221746287</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.09307953531244693</v>
+        <v>0.09307953531244695</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.515875681201578</v>
+        <v>2.281610792608495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.205022531676767</v>
+        <v>2.282058231024174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.238463261933223</v>
+        <v>1.176736085257842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.05471005511551329</v>
+        <v>-0.007899207026100127</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1853294709702893</v>
+        <v>0.1695806009148754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1258998184908237</v>
+        <v>0.1311567637944032</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07970337004650908</v>
+        <v>0.07507846193685361</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.002355584869963384</v>
+        <v>-0.0002569321272969095</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.832235486523983</v>
+        <v>5.730516116120869</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.142765579740521</v>
+        <v>6.04058746925743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.827295983160906</v>
+        <v>4.628311525741204</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.258211786552313</v>
+        <v>3.234004141591739</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4945141881415637</v>
+        <v>0.480956934012768</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3930250974992851</v>
+        <v>0.3845389868097857</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3426331930288704</v>
+        <v>0.3264227408758501</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1815054454862751</v>
+        <v>0.1821816877876441</v>
       </c>
     </row>
     <row r="19">
